--- a/data/pca/factorExposure/factorExposure_2012-11-15.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-11-15.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>0.001549513683444647</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.002052194057271834</v>
+      </c>
+      <c r="C2">
+        <v>-0.02988861802123212</v>
+      </c>
+      <c r="D2">
+        <v>0.003975398616119587</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>0.001432115807058184</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.006960605929403601</v>
+      </c>
+      <c r="C4">
+        <v>-0.08279836905069093</v>
+      </c>
+      <c r="D4">
+        <v>0.07466421803864677</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.0004060785549255036</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.01455072204664089</v>
+      </c>
+      <c r="C6">
+        <v>-0.1144464634657832</v>
+      </c>
+      <c r="D6">
+        <v>0.03207032918696587</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.001724483493078563</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.004988867624792704</v>
+      </c>
+      <c r="C7">
+        <v>-0.05829724571989898</v>
+      </c>
+      <c r="D7">
+        <v>0.03257046992093109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>-0.0005272079119167666</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.006065502494145621</v>
+      </c>
+      <c r="C8">
+        <v>-0.03670045954717173</v>
+      </c>
+      <c r="D8">
+        <v>0.04056818674536059</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>0.004028495253682082</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.005105242134904394</v>
+      </c>
+      <c r="C9">
+        <v>-0.07086812134093483</v>
+      </c>
+      <c r="D9">
+        <v>0.07256123256690809</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>-0.002434600905080102</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.00581664493859109</v>
+      </c>
+      <c r="C10">
+        <v>-0.05613549571484085</v>
+      </c>
+      <c r="D10">
+        <v>-0.1952725225476205</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>0.004337248726420813</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.005598811509178622</v>
+      </c>
+      <c r="C11">
+        <v>-0.07933849424721237</v>
+      </c>
+      <c r="D11">
+        <v>0.06245612058315533</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0.00145713339812615</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.004013330512045257</v>
+      </c>
+      <c r="C12">
+        <v>-0.06364048233756173</v>
+      </c>
+      <c r="D12">
+        <v>0.04848034984331299</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>-0.001850762199973446</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.009122554055016949</v>
+      </c>
+      <c r="C13">
+        <v>-0.06959931252028388</v>
+      </c>
+      <c r="D13">
+        <v>0.05654961384225712</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>0.002235356678857281</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.001216873539390643</v>
+      </c>
+      <c r="C14">
+        <v>-0.04360819420815004</v>
+      </c>
+      <c r="D14">
+        <v>0.00656039738114651</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.0009677295029462526</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.005955034348563734</v>
+      </c>
+      <c r="C15">
+        <v>-0.0419147798032871</v>
+      </c>
+      <c r="D15">
+        <v>0.03118322681946987</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>0.002155011476599219</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.005023205856972428</v>
+      </c>
+      <c r="C16">
+        <v>-0.06452774471904973</v>
+      </c>
+      <c r="D16">
+        <v>0.05354365099269861</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.001009498485014227</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.008801873847469588</v>
+      </c>
+      <c r="C20">
+        <v>-0.06566494982087526</v>
+      </c>
+      <c r="D20">
+        <v>0.04241451081897545</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>-0.00584432816192168</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.009857332193961347</v>
+      </c>
+      <c r="C21">
+        <v>-0.02154553803026447</v>
+      </c>
+      <c r="D21">
+        <v>0.03765359727716267</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>0.01767210313124914</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.006301549215887954</v>
+      </c>
+      <c r="C22">
+        <v>-0.09455533045296023</v>
+      </c>
+      <c r="D22">
+        <v>0.1150803915448845</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>0.01800582771805082</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.006114881369678751</v>
+      </c>
+      <c r="C23">
+        <v>-0.09537232811335328</v>
+      </c>
+      <c r="D23">
+        <v>0.1150218874454549</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>0.003583217816994981</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.005435979170173614</v>
+      </c>
+      <c r="C24">
+        <v>-0.07567976533651222</v>
+      </c>
+      <c r="D24">
+        <v>0.06637614725275003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>0.00566917096856768</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.003253665286513964</v>
+      </c>
+      <c r="C25">
+        <v>-0.07797974228212343</v>
+      </c>
+      <c r="D25">
+        <v>0.06412763433087272</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>0.004271756169338896</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.003603785162833998</v>
+      </c>
+      <c r="C26">
+        <v>-0.03966286813698863</v>
+      </c>
+      <c r="D26">
+        <v>0.02187694481968559</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>0.006721828479857552</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.0005489750922095352</v>
+      </c>
+      <c r="C28">
+        <v>-0.1055870785622482</v>
+      </c>
+      <c r="D28">
+        <v>-0.3200479337161689</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>0.001451651359229149</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.002959530028849036</v>
+      </c>
+      <c r="C29">
+        <v>-0.04951487418844642</v>
+      </c>
+      <c r="D29">
+        <v>0.0082580032028171</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>0.005015454223482253</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.01023960262150592</v>
+      </c>
+      <c r="C30">
+        <v>-0.1425102496187336</v>
+      </c>
+      <c r="D30">
+        <v>0.104632699514102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>-0.0001063504001401552</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.006452845105975441</v>
+      </c>
+      <c r="C31">
+        <v>-0.04468165141836196</v>
+      </c>
+      <c r="D31">
+        <v>0.02898681917999212</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>-2.808121241249063e-06</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.003966645363467049</v>
+      </c>
+      <c r="C32">
+        <v>-0.03891222455637142</v>
+      </c>
+      <c r="D32">
+        <v>0.02515097889187059</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>0.003573689953534717</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.008686091406298939</v>
+      </c>
+      <c r="C33">
+        <v>-0.08696374407843724</v>
+      </c>
+      <c r="D33">
+        <v>0.06446551224930903</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>0.005199910800388081</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.004143739497447447</v>
+      </c>
+      <c r="C34">
+        <v>-0.05782023185652365</v>
+      </c>
+      <c r="D34">
+        <v>0.05449410387696338</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.0006675560337136538</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.005231133655628203</v>
+      </c>
+      <c r="C35">
+        <v>-0.03996440080128941</v>
+      </c>
+      <c r="D35">
+        <v>0.01827095533868986</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>0.004288173289327868</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.0009340737758640561</v>
+      </c>
+      <c r="C36">
+        <v>-0.02558484088268688</v>
+      </c>
+      <c r="D36">
+        <v>0.02177934501946642</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>-0.001225581744197557</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.009140188579598958</v>
+      </c>
+      <c r="C38">
+        <v>-0.03473736545895867</v>
+      </c>
+      <c r="D38">
+        <v>0.01470021317121923</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>0.01424613737126272</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.0009215233387502261</v>
+      </c>
+      <c r="C39">
+        <v>-0.1151579713467389</v>
+      </c>
+      <c r="D39">
+        <v>0.07503900491394633</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>0.009762299330464842</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.003446493272829779</v>
+      </c>
+      <c r="C40">
+        <v>-0.09013536253327976</v>
+      </c>
+      <c r="D40">
+        <v>0.01311917173174202</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>-0.0009173193118418518</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.007266471422180927</v>
+      </c>
+      <c r="C41">
+        <v>-0.03779552091095115</v>
+      </c>
+      <c r="D41">
+        <v>0.03775917381076637</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>0.003586846495351823</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.004091977505572726</v>
+      </c>
+      <c r="C43">
+        <v>-0.05385507033685237</v>
+      </c>
+      <c r="D43">
+        <v>0.02412695473603054</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>0.01648154327979932</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.003028612791227403</v>
+      </c>
+      <c r="C44">
+        <v>-0.1081708403063172</v>
+      </c>
+      <c r="D44">
+        <v>0.06600298678466822</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>0.0006709700391713807</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.002071544023985647</v>
+      </c>
+      <c r="C46">
+        <v>-0.03240769853155857</v>
+      </c>
+      <c r="D46">
+        <v>0.03477862732320704</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>0.001154954978796501</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.002388299963708037</v>
+      </c>
+      <c r="C47">
+        <v>-0.0361516917316936</v>
+      </c>
+      <c r="D47">
+        <v>0.02181820954739531</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>-0.004105540588304714</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.006885516000698769</v>
+      </c>
+      <c r="C48">
+        <v>-0.03107942603723579</v>
+      </c>
+      <c r="D48">
+        <v>0.03258084199487819</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>0.01359770490599061</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.01647335259025188</v>
+      </c>
+      <c r="C49">
+        <v>-0.1858708311233971</v>
+      </c>
+      <c r="D49">
+        <v>0.01767609388739488</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>0.002166785273171631</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.003832748246525475</v>
+      </c>
+      <c r="C50">
+        <v>-0.04338249181092493</v>
+      </c>
+      <c r="D50">
+        <v>0.03699259785869093</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>-0.0001445197890462039</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.004688291345630717</v>
+      </c>
+      <c r="C51">
+        <v>-0.02498746801074515</v>
+      </c>
+      <c r="D51">
+        <v>0.02065658146774369</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.000639694539807571</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.02124460677771858</v>
+      </c>
+      <c r="C53">
+        <v>-0.1695490349799908</v>
+      </c>
+      <c r="D53">
+        <v>0.02752608235825408</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>-0.001501524335251081</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.008879921114088906</v>
+      </c>
+      <c r="C54">
+        <v>-0.05414514301560416</v>
+      </c>
+      <c r="D54">
+        <v>0.04557764191735909</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>0.005725737033538709</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.009591703986586025</v>
+      </c>
+      <c r="C55">
+        <v>-0.1097272445152167</v>
+      </c>
+      <c r="D55">
+        <v>0.03850252704626856</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.0003383027755912455</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.02054316122690524</v>
+      </c>
+      <c r="C56">
+        <v>-0.1753302066268308</v>
+      </c>
+      <c r="D56">
+        <v>0.01830187508513445</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>0.009572931762806073</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.01958196726429643</v>
+      </c>
+      <c r="C58">
+        <v>-0.110027216060894</v>
+      </c>
+      <c r="D58">
+        <v>0.06234925250620652</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>0.008748660296491132</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.01056517393282426</v>
+      </c>
+      <c r="C59">
+        <v>-0.1652057766470506</v>
+      </c>
+      <c r="D59">
+        <v>-0.3326474044491122</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0.00554963748623963</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.02539988253832189</v>
+      </c>
+      <c r="C60">
+        <v>-0.2238819376380097</v>
+      </c>
+      <c r="D60">
+        <v>0.02817535707406101</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>0.01538330038045797</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.001639206241559412</v>
+      </c>
+      <c r="C61">
+        <v>-0.0946736513986671</v>
+      </c>
+      <c r="D61">
+        <v>0.0563587007514673</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>-0.1589386602455723</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.1477948144624568</v>
+      </c>
+      <c r="C62">
+        <v>-0.09376030716271985</v>
+      </c>
+      <c r="D62">
+        <v>0.03631735341628357</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>0.0007216662567521466</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.006814269191517256</v>
+      </c>
+      <c r="C63">
+        <v>-0.05481822199112799</v>
+      </c>
+      <c r="D63">
+        <v>0.02611164312762453</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.001008647624720253</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.0154908122465213</v>
+      </c>
+      <c r="C64">
+        <v>-0.1048688347718913</v>
+      </c>
+      <c r="D64">
+        <v>0.06158647280276984</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>-0.001829000266100115</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.01804534146526265</v>
+      </c>
+      <c r="C65">
+        <v>-0.1238488863356877</v>
+      </c>
+      <c r="D65">
+        <v>0.02147116766480025</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>0.007948788333164557</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.01352246499750619</v>
+      </c>
+      <c r="C66">
+        <v>-0.1593601577611405</v>
+      </c>
+      <c r="D66">
+        <v>0.113513648937956</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>-0.002951646635357307</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.0156578565356161</v>
+      </c>
+      <c r="C67">
+        <v>-0.06588931596891355</v>
+      </c>
+      <c r="D67">
+        <v>0.02670731121058697</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>0.006963526833580465</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.001179249178290361</v>
+      </c>
+      <c r="C68">
+        <v>-0.0866018203012198</v>
+      </c>
+      <c r="D68">
+        <v>-0.261389868099669</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>0.002379773587817206</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.006124823924639256</v>
+      </c>
+      <c r="C69">
+        <v>-0.05055084233277802</v>
+      </c>
+      <c r="D69">
+        <v>0.03707401132655073</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>-0.0004381999118756829</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.00180148609072515</v>
+      </c>
+      <c r="C70">
+        <v>-0.003082354642526933</v>
+      </c>
+      <c r="D70">
+        <v>0.001897669691426</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>0.001106575708465975</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.006251072109752676</v>
+      </c>
+      <c r="C71">
+        <v>-0.09378662762361421</v>
+      </c>
+      <c r="D71">
+        <v>-0.3036951796543467</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>0.005704740210580532</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.01656362103831003</v>
+      </c>
+      <c r="C72">
+        <v>-0.1532830390120198</v>
+      </c>
+      <c r="D72">
+        <v>0.01427471436530238</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>0.01557360430412541</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.03165848821584858</v>
+      </c>
+      <c r="C73">
+        <v>-0.2824068209928193</v>
+      </c>
+      <c r="D73">
+        <v>0.05930074119548313</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>0.006720287886086638</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.00230666586853742</v>
+      </c>
+      <c r="C74">
+        <v>-0.1032268143891627</v>
+      </c>
+      <c r="D74">
+        <v>0.03424781901093969</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>0.003876359722946665</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.01168573371471946</v>
+      </c>
+      <c r="C75">
+        <v>-0.1227630655618304</v>
+      </c>
+      <c r="D75">
+        <v>0.02169786493906789</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>-0.00575377951916714</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.02291055833061255</v>
+      </c>
+      <c r="C76">
+        <v>-0.1491941448844958</v>
+      </c>
+      <c r="D76">
+        <v>0.05532877556003848</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>-0.004031886976115374</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.02241393404961523</v>
+      </c>
+      <c r="C77">
+        <v>-0.1138507570858914</v>
+      </c>
+      <c r="D77">
+        <v>0.0781401688843139</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>-0.0003061436873768715</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.01536304843715902</v>
+      </c>
+      <c r="C78">
+        <v>-0.0964833667036144</v>
+      </c>
+      <c r="D78">
+        <v>0.07213698124496451</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>-0.02215211205619302</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.0383960516776793</v>
+      </c>
+      <c r="C79">
+        <v>-0.1562342534731517</v>
+      </c>
+      <c r="D79">
+        <v>0.03136310445145326</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>-0.00554534978993859</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.01004260349605132</v>
+      </c>
+      <c r="C80">
+        <v>-0.03993491651292166</v>
+      </c>
+      <c r="D80">
+        <v>0.0291955088241099</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.0001232143868238161</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.01576960808432857</v>
+      </c>
+      <c r="C81">
+        <v>-0.1288353259762832</v>
+      </c>
+      <c r="D81">
+        <v>0.03983330319800259</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>-0.002626801844970704</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.0202155823866001</v>
+      </c>
+      <c r="C82">
+        <v>-0.1391689269259807</v>
+      </c>
+      <c r="D82">
+        <v>0.04261613252515296</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>0.005395142893645379</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.01037844694963606</v>
+      </c>
+      <c r="C83">
+        <v>-0.05338334947135043</v>
+      </c>
+      <c r="D83">
+        <v>0.05744803653280994</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>-0.01298162689803637</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.01161319734770201</v>
+      </c>
+      <c r="C84">
+        <v>-0.03725743020619238</v>
+      </c>
+      <c r="D84">
+        <v>0.0001261579093553478</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>-0.01246822184343528</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.02938072674646401</v>
+      </c>
+      <c r="C85">
+        <v>-0.1246109958646875</v>
+      </c>
+      <c r="D85">
+        <v>0.042275914777359</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>0.003066234503000112</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.004665195988859726</v>
+      </c>
+      <c r="C86">
+        <v>-0.04831002475110887</v>
+      </c>
+      <c r="D86">
+        <v>0.03077601337333233</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>0.004110379852978447</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.01098973613600636</v>
+      </c>
+      <c r="C87">
+        <v>-0.1283795454338535</v>
+      </c>
+      <c r="D87">
+        <v>0.07196572861911923</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>0.01134469136187528</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.002550931366225626</v>
+      </c>
+      <c r="C88">
+        <v>-0.06415086507171311</v>
+      </c>
+      <c r="D88">
+        <v>0.01981752756785788</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>0.01550533155741827</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.001000247627626131</v>
+      </c>
+      <c r="C89">
+        <v>-0.1462243665083053</v>
+      </c>
+      <c r="D89">
+        <v>-0.3304283664306265</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>0.003060855596063167</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.007114068915728428</v>
+      </c>
+      <c r="C90">
+        <v>-0.1210026431787306</v>
+      </c>
+      <c r="D90">
+        <v>-0.3170360730365278</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.00120879509966717</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.0105707556633545</v>
+      </c>
+      <c r="C91">
+        <v>-0.1001334671700171</v>
+      </c>
+      <c r="D91">
+        <v>0.02319530663480456</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>0.01009445386085532</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.001495456783487321</v>
+      </c>
+      <c r="C92">
+        <v>-0.1354887620279041</v>
+      </c>
+      <c r="D92">
+        <v>-0.3216416372503635</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>0.00197014454281959</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.005564078614896456</v>
+      </c>
+      <c r="C93">
+        <v>-0.1056523272126133</v>
+      </c>
+      <c r="D93">
+        <v>-0.3010918430552115</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>-0.0007864260918986087</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.02267203532052711</v>
+      </c>
+      <c r="C94">
+        <v>-0.1450797275509615</v>
+      </c>
+      <c r="D94">
+        <v>0.05091124315162347</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>0.002869390406968608</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.01772486279261289</v>
+      </c>
+      <c r="C95">
+        <v>-0.1240730958187215</v>
+      </c>
+      <c r="D95">
+        <v>0.05871211603762089</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.001524423550772934</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.03643390987040928</v>
+      </c>
+      <c r="C97">
+        <v>-0.2187558112532077</v>
+      </c>
+      <c r="D97">
+        <v>-0.01448759488100503</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.003700380440044593</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.03818632073933678</v>
+      </c>
+      <c r="C98">
+        <v>-0.250559141255942</v>
+      </c>
+      <c r="D98">
+        <v>0.04818726034973822</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>-0.9851932093060863</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.9813987735702103</v>
+      </c>
+      <c r="C99">
+        <v>0.1203879462489714</v>
+      </c>
+      <c r="D99">
+        <v>-0.02547322269827069</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>0.001372247054759414</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.003001758002239583</v>
+      </c>
+      <c r="C101">
+        <v>-0.04965424966339457</v>
+      </c>
+      <c r="D101">
+        <v>0.008629657435611698</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
